--- a/Price_Study/US/Results/RASPBERRIES/summary.xlsx
+++ b/Price_Study/US/Results/RASPBERRIES/summary.xlsx
@@ -429,7 +429,7 @@
         <v>166</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,7 +446,7 @@
         <v>8.431876798480655</v>
       </c>
       <c r="E3">
-        <v>8.289746295406477</v>
+        <v>8.204661077468252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,7 +463,7 @@
         <v>2.100337854348559</v>
       </c>
       <c r="E4">
-        <v>2.401778660213266</v>
+        <v>2.400574231392429</v>
       </c>
     </row>
     <row r="5" spans="1:5">
